--- a/output/fit_clients/fit_round_374.xlsx
+++ b/output/fit_clients/fit_round_374.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2232940678.380686</v>
+        <v>2434710664.327886</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07032919372256094</v>
+        <v>0.113329718488579</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02898195998756989</v>
+        <v>0.04227998393862699</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1116470366.136786</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1797884753.215594</v>
+        <v>2281924991.828619</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1520194839145652</v>
+        <v>0.1265258826123875</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03288990089352172</v>
+        <v>0.04699226060470497</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>898942385.3721528</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4275124839.415334</v>
+        <v>3401324266.473</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1553938332259722</v>
+        <v>0.1231054938785912</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02915889156119912</v>
+        <v>0.03415734408169417</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>135</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2137562453.401374</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2615514093.975228</v>
+        <v>3724206017.253375</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08030047952572925</v>
+        <v>0.0763792592091229</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04894351238613678</v>
+        <v>0.04906245477231711</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>138</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1307757142.260916</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1978528938.480666</v>
+        <v>2469960847.027496</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09477930419902469</v>
+        <v>0.1257447878210934</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03934221388459174</v>
+        <v>0.03888825731247524</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>70</v>
-      </c>
-      <c r="J6" t="n">
-        <v>989264501.1679236</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2070325925.969567</v>
+        <v>2581089250.486517</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07051168932783186</v>
+        <v>0.06840895543519131</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03824951161913431</v>
+        <v>0.03202167556250114</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>117</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1035163017.390118</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3527997462.347734</v>
+        <v>3970377415.461668</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1333814420883938</v>
+        <v>0.1552648988604348</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02914978404992953</v>
+        <v>0.02312536145369408</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>119</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1763998842.67457</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2174673204.98461</v>
+        <v>1673769367.898109</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1377339955627951</v>
+        <v>0.1375232672010371</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03191061977537387</v>
+        <v>0.02798201326600537</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1087336604.872244</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4288478447.743706</v>
+        <v>3800791789.044938</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1729533118082979</v>
+        <v>0.1620672789124665</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04967435284165896</v>
+        <v>0.03776036518291268</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>157</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2144239268.140122</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3011601282.533984</v>
+        <v>3913059489.492636</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1233037247838415</v>
+        <v>0.1730918724675883</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03988673003858159</v>
+        <v>0.04063847027494139</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>154</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1505800585.035319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2201052873.460944</v>
+        <v>2891090933.867265</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1272860909074524</v>
+        <v>0.1927762953696679</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04711662662668258</v>
+        <v>0.05081401685134758</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>127</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1100526381.602618</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3713879532.652575</v>
+        <v>3456042944.047574</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0619162353089768</v>
+        <v>0.08903512468777383</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01996901982976637</v>
+        <v>0.02337827012544385</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>125</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1856939835.799553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3515021306.367994</v>
+        <v>3555925692.519135</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1445560285001805</v>
+        <v>0.1380335437723778</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03865022295403949</v>
+        <v>0.04368162400810965</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>119</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1757510650.335629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1617747551.031149</v>
+        <v>1530943868.615239</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09061760845494636</v>
+        <v>0.06806424279866667</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04565175067549134</v>
+        <v>0.03053549530573133</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>808873887.7216032</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2898438104.785832</v>
+        <v>2831050974.832721</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07285062685875843</v>
+        <v>0.07988472819926482</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04275548567678568</v>
+        <v>0.03859792652430409</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>75</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1449219047.627911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5014496731.142831</v>
+        <v>5213048439.034897</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1216648222918608</v>
+        <v>0.1442234733977303</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03921157185150789</v>
+        <v>0.0467155450590095</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>110</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2507248350.045979</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3708511345.559499</v>
+        <v>3610815994.03911</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1372321970127678</v>
+        <v>0.1245412029720926</v>
       </c>
       <c r="G18" t="n">
-        <v>0.028674183849918</v>
+        <v>0.03455679661425198</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>122</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1854255651.806327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>886033573.7232407</v>
+        <v>1311411317.596947</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1428785979826327</v>
+        <v>0.1658903698693165</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02530230893676609</v>
+        <v>0.02501977543933605</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>443016788.3756981</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1863061085.980761</v>
+        <v>2426498106.902281</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1414430815081144</v>
+        <v>0.114470715378508</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02093902322808553</v>
+        <v>0.02698808942741926</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>48</v>
-      </c>
-      <c r="J20" t="n">
-        <v>931530583.9459103</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1857339232.041714</v>
+        <v>2461257782.162966</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06205034420513548</v>
+        <v>0.06644765165123609</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02987241325001253</v>
+        <v>0.04545297255725773</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>30</v>
-      </c>
-      <c r="J21" t="n">
-        <v>928669665.6468493</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3204673300.571537</v>
+        <v>3524459313.550788</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09954214013769867</v>
+        <v>0.09971242623242652</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04641904992703192</v>
+        <v>0.04500479836179653</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>105</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1602336699.57499</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1513637207.630399</v>
+        <v>1525415228.620709</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1203142653737622</v>
+        <v>0.1267091391816615</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03674326774596666</v>
+        <v>0.03993614055068204</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>756818587.4734855</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4101958442.358699</v>
+        <v>3702095533.876915</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1236269005760051</v>
+        <v>0.1321812044068625</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0370099345546186</v>
+        <v>0.02875673430666981</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>109</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2050979182.32401</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1020752723.567863</v>
+        <v>1136019382.901535</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1220000894171395</v>
+        <v>0.0990652777384249</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02790729644295494</v>
+        <v>0.02410846850847003</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>510376421.0001812</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1238595496.037169</v>
+        <v>994147909.4813085</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1070834498474319</v>
+        <v>0.1177423312393555</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02375143382245207</v>
+        <v>0.03707002031398984</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>619297778.494832</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3051893670.560969</v>
+        <v>4251655670.975211</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09972214832779157</v>
+        <v>0.112372949383715</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02711877393490214</v>
+        <v>0.01925631044223477</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1525946892.539077</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2380864052.089511</v>
+        <v>2920831162.507083</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1087437140984753</v>
+        <v>0.09370341609077694</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03064997162676213</v>
+        <v>0.0499398420308683</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>120</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1190431983.558519</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4799483187.945065</v>
+        <v>3911621470.192163</v>
       </c>
       <c r="F29" t="n">
-        <v>0.122302172110818</v>
+        <v>0.135247197895163</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03305036270249891</v>
+        <v>0.03788900100695956</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>165</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2399741555.405978</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1988543222.346145</v>
+        <v>2205018608.549414</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1368289006113718</v>
+        <v>0.1376392201826943</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02556891979091475</v>
+        <v>0.02490687440928212</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>994271647.3397003</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1176793305.448495</v>
+        <v>1290693170.435074</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07851117391602394</v>
+        <v>0.1090441686210191</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03559186380178154</v>
+        <v>0.04515322758148889</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>588396609.6513916</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1709809987.444664</v>
+        <v>1355081531.82126</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1063311270799341</v>
+        <v>0.07933502531857553</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02599307898412707</v>
+        <v>0.03773754811425507</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>854905105.5203738</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2676824048.944133</v>
+        <v>2246017276.838264</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2019036370284616</v>
+        <v>0.1820967975382953</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04099150083957833</v>
+        <v>0.03900786476959808</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>112</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1338412047.625335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1233121087.083813</v>
+        <v>1249489995.632993</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09536841514691095</v>
+        <v>0.08945775483196547</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01870307761684992</v>
+        <v>0.01737136968791779</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>616560543.179312</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1321569556.869175</v>
+        <v>1060956542.103854</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1005889800159175</v>
+        <v>0.07724681861617748</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0272093644841661</v>
+        <v>0.04177858586509549</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>660784726.5326356</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2042468701.358626</v>
+        <v>2788214966.813535</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1390126008229235</v>
+        <v>0.1804892760671403</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02210798833860699</v>
+        <v>0.01898363789501102</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>94</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1021234409.30707</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1793539454.987217</v>
+        <v>1992086809.999831</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1000956410793533</v>
+        <v>0.09175719619907254</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02969574037296622</v>
+        <v>0.04234491014538722</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>100</v>
-      </c>
-      <c r="J37" t="n">
-        <v>896769726.3810765</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2001928746.229198</v>
+        <v>1570797533.487926</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09831964946306533</v>
+        <v>0.07773478008060146</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02538469200578473</v>
+        <v>0.02763933045437485</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1000964351.480577</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1787452373.587583</v>
+        <v>2000709574.758195</v>
       </c>
       <c r="F39" t="n">
-        <v>0.13760736376065</v>
+        <v>0.1540391290493791</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02816121538515253</v>
+        <v>0.03247581389579349</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>893726213.5920725</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1375420895.189956</v>
+        <v>1679733162.330173</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1280979832561092</v>
+        <v>0.1182342169023275</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03850490096148142</v>
+        <v>0.04936813791421014</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>687710444.9744741</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2781009074.455878</v>
+        <v>2809817384.838821</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1280380600867994</v>
+        <v>0.1154128689434243</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03322487349928632</v>
+        <v>0.03160361649514478</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>96</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1390504535.012285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3275304795.261091</v>
+        <v>3964975399.715537</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1090209206074338</v>
+        <v>0.1023902939893605</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0329040799375678</v>
+        <v>0.03216139798062847</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>126</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1637652377.035679</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2736866431.292425</v>
+        <v>1936147017.987753</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1446835427997286</v>
+        <v>0.1721529860644763</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02522398329004689</v>
+        <v>0.02306512668359916</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>131</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1368433240.506967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1712593201.864973</v>
+        <v>2088569034.033816</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08633270144855304</v>
+        <v>0.09216065501193452</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03717900896482961</v>
+        <v>0.02415241146350361</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>856296649.9371355</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2491682109.407652</v>
+        <v>1698349600.051632</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1582596086101437</v>
+        <v>0.167239412897957</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03741527798745072</v>
+        <v>0.05374397196764139</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1245841095.113558</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4894742289.02551</v>
+        <v>3546505237.742974</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1577042537798547</v>
+        <v>0.1718702253346256</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05222542318431304</v>
+        <v>0.04420014070365717</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>133</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2447371165.295641</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4636067589.845263</v>
+        <v>5027763599.32289</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1659746960044148</v>
+        <v>0.1712033580807432</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04851770468789155</v>
+        <v>0.05298740756143731</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>100</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2318033830.089563</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4078874523.171844</v>
+        <v>4122403250.295262</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1071328017359395</v>
+        <v>0.09786836724985296</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03590711146543654</v>
+        <v>0.02843751462581424</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>123</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2039437291.383678</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1560640083.114948</v>
+        <v>1520495440.36087</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1269251654686435</v>
+        <v>0.1795435701658298</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02862880670817452</v>
+        <v>0.0344929739507635</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>780320064.1751559</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2979498535.72128</v>
+        <v>4225106484.811512</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1213245349954753</v>
+        <v>0.1072205910658458</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04846663344415666</v>
+        <v>0.03447916944381584</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>127</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1489749329.181008</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1472049645.555858</v>
+        <v>1185049903.853168</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1525460696733585</v>
+        <v>0.1604893263305653</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05014703646930063</v>
+        <v>0.05150473447533391</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>736024830.2519456</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3246421304.992743</v>
+        <v>4951178785.090528</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09971476132360563</v>
+        <v>0.1139331453221271</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05311903862919629</v>
+        <v>0.05637494077179466</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>154</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1623210753.340287</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2682174606.16179</v>
+        <v>3464361993.485055</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1926919614411765</v>
+        <v>0.1796715697091056</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02534898315973605</v>
+        <v>0.02304323828726775</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>108</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1341087357.494273</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3224609986.164669</v>
+        <v>3493538490.728594</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1459344490939607</v>
+        <v>0.1663987393723807</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05061998301396227</v>
+        <v>0.04125089689782452</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>123</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1612304996.287548</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3366479547.105954</v>
+        <v>3600685264.631075</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1565298599850373</v>
+        <v>0.2062325970987991</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02681726919973123</v>
+        <v>0.02171561361639638</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>108</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1683239720.496285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1594054094.016118</v>
+        <v>1498707423.521463</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1344710345618113</v>
+        <v>0.1629427131495227</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04547356018990135</v>
+        <v>0.05165305638286919</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>797027075.3135332</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3666770878.682142</v>
+        <v>4498819888.460854</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1698881093354985</v>
+        <v>0.1116454597932719</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02177103079434785</v>
+        <v>0.02030264574680347</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>118</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1833385499.742229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1678396963.379561</v>
+        <v>1643310777.806741</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1680123377594076</v>
+        <v>0.1965113284025538</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0366406030389296</v>
+        <v>0.03204375633399344</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>839198496.5689181</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3787607226.222609</v>
+        <v>4444634343.941862</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1058835698516793</v>
+        <v>0.100224083656072</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04803976715523198</v>
+        <v>0.0392314918586641</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>102</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1893803599.313993</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2937436747.413197</v>
+        <v>3219467244.598294</v>
       </c>
       <c r="F60" t="n">
-        <v>0.128118351200918</v>
+        <v>0.1956025277625117</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0214388755942877</v>
+        <v>0.02470666470185982</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>121</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1468718437.503799</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2533257027.738435</v>
+        <v>2533823163.028467</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1444619021254648</v>
+        <v>0.1521794770500599</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02576334708855619</v>
+        <v>0.02369597825157198</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>128</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1266628538.367085</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1678756295.327146</v>
+        <v>1347885051.460364</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1576125923942767</v>
+        <v>0.1498841336365281</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04242378447843643</v>
+        <v>0.0470284325703651</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>839378157.5482355</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4331814960.746857</v>
+        <v>4178140372.78083</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08311144227459277</v>
+        <v>0.1038551442993437</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03730470572535709</v>
+        <v>0.04213154728769173</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>107</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2165907527.951249</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4532500316.619689</v>
+        <v>3712472201.078072</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1843252452203143</v>
+        <v>0.142496374256257</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02295269722474491</v>
+        <v>0.02152810883232369</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>116</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2266250231.639385</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4627354309.408131</v>
+        <v>4022747595.007595</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1720465506077971</v>
+        <v>0.1280471504184674</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0206771565621718</v>
+        <v>0.02630869175856404</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>134</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2313677135.851034</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5174554507.889229</v>
+        <v>3812674832.445178</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1441955773844345</v>
+        <v>0.1596038249748936</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03326667939116799</v>
+        <v>0.03202828573189147</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>109</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2587277290.504446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2831787603.951219</v>
+        <v>3284243639.829397</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1029779690047765</v>
+        <v>0.08654444927440594</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0392712330799104</v>
+        <v>0.04902074591863318</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>119</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1415893834.514365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4299704601.573688</v>
+        <v>5605756439.357405</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1138242655830871</v>
+        <v>0.1550568198045991</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04063991958859499</v>
+        <v>0.04139270323755811</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>120</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2149852314.746462</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2187789647.307026</v>
+        <v>2452355765.004731</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1128791031068912</v>
+        <v>0.152335193385754</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03907549378916408</v>
+        <v>0.053187344065286</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1093894852.881097</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2576754121.91139</v>
+        <v>2785502238.002687</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08537880685345291</v>
+        <v>0.08100431675575175</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04368090203538757</v>
+        <v>0.03546936497404207</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>107</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1288377010.485695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4035059025.431828</v>
+        <v>3675334220.805836</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1815619519062627</v>
+        <v>0.144527418896509</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02352650361754196</v>
+        <v>0.02208273673578019</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>136</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2017529546.382008</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2060606818.969521</v>
+        <v>1586449331.03319</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1017276590745466</v>
+        <v>0.07815640228373798</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04146323132612247</v>
+        <v>0.04408215617781558</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1030303346.083328</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3514828025.758379</v>
+        <v>3471987558.928306</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1116613454130059</v>
+        <v>0.1070915527972938</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0450259294910472</v>
+        <v>0.03820365418250699</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>142</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1757413961.704578</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3176771552.489887</v>
+        <v>3019851124.330978</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1151113300951956</v>
+        <v>0.1554480614925174</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02524231730309564</v>
+        <v>0.02515656940925285</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>127</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1588385826.39496</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2469862616.567736</v>
+        <v>1791981121.627398</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1084531203537466</v>
+        <v>0.1322946073627906</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02924924379901817</v>
+        <v>0.02834539769609199</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1234931228.37991</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4513400992.263089</v>
+        <v>5210993174.307585</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09814662780881003</v>
+        <v>0.1246812433466498</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03251535373381848</v>
+        <v>0.02564013091610329</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2256700502.402372</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1923782497.045603</v>
+        <v>1989903727.096187</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1415648822043443</v>
+        <v>0.1700282398805119</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02668387501774186</v>
+        <v>0.02640352802230899</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>961891298.7796174</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3735018212.823998</v>
+        <v>2953181861.399701</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1239588308976012</v>
+        <v>0.09103449575377218</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04669228615044522</v>
+        <v>0.04490907858716289</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>130</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1867509091.127748</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1537930987.858366</v>
+        <v>1782649716.331257</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1105789865356015</v>
+        <v>0.1564953635555481</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04002892561589264</v>
+        <v>0.03946742720991101</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>768965534.7533354</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5456976792.484487</v>
+        <v>3448782017.041027</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1116729019227821</v>
+        <v>0.06816994643085107</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03257360251397479</v>
+        <v>0.03688589799185706</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>80</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2728488468.177845</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3722034658.801155</v>
+        <v>3641827204.665776</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09048826759546651</v>
+        <v>0.1135571457919948</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03153096348312423</v>
+        <v>0.02081368598259993</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>89</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1861017282.301117</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5359002374.724427</v>
+        <v>4390096751.935513</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1623184030913566</v>
+        <v>0.1818777061445933</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02396838090117635</v>
+        <v>0.02873023657932323</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>130</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2679501151.268709</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1539468989.257591</v>
+        <v>1823074176.915024</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1160274896651178</v>
+        <v>0.146207386545622</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03142579197905098</v>
+        <v>0.03988726564085303</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>769734422.6613419</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2096860425.269269</v>
+        <v>1759731328.870145</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1139053112076266</v>
+        <v>0.1035771920761615</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05171626550301488</v>
+        <v>0.04958868201571037</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1048430203.473959</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3168614985.480049</v>
+        <v>2722808028.279431</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1299087660852916</v>
+        <v>0.1852449711762113</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04725291038463346</v>
+        <v>0.03792218766395417</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>140</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1584307571.519423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1763994488.781377</v>
+        <v>2178315011.100956</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1538111898445934</v>
+        <v>0.1689502132476046</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0273977340958299</v>
+        <v>0.02368650715117005</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>50</v>
-      </c>
-      <c r="J86" t="n">
-        <v>881997239.1952221</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>943332222.1751721</v>
+        <v>946913670.4597715</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1643398570692428</v>
+        <v>0.1564503428901482</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03134333893749933</v>
+        <v>0.03671836933347625</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>471666100.9192833</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2667058204.461579</v>
+        <v>3227811212.967988</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1373256262338211</v>
+        <v>0.1474295199654282</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03361937816143505</v>
+        <v>0.03902867265020612</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>148</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1333529099.785138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2610010172.173671</v>
+        <v>3104826990.557746</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1586387139082434</v>
+        <v>0.1206847935520479</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03963286651893604</v>
+        <v>0.03414056855915271</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>126</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1305005152.809338</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1681223802.415686</v>
+        <v>1516691857.143942</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1367775754523021</v>
+        <v>0.1227570894661762</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04784392647872767</v>
+        <v>0.037846507170731</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>840611913.1197481</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1708979820.441994</v>
+        <v>1693034753.337321</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1551368249106888</v>
+        <v>0.1303469358147632</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04617175893235086</v>
+        <v>0.04031665616738642</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>854489921.3153356</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2448958021.027286</v>
+        <v>2844011318.909511</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07726632459143278</v>
+        <v>0.1011413530287125</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04134743187987715</v>
+        <v>0.04713771198848243</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>105</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1224478990.662467</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4263558670.764505</v>
+        <v>4587705015.940902</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1404810001210624</v>
+        <v>0.1219435556680647</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04699568551266843</v>
+        <v>0.03335271687929827</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>112</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2131779318.970047</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2072053152.778435</v>
+        <v>2248267007.364532</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1634642039728195</v>
+        <v>0.1443304179077189</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02603049949160926</v>
+        <v>0.02652603981334224</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1036026584.11711</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2047709814.067871</v>
+        <v>2009595175.844992</v>
       </c>
       <c r="F95" t="n">
-        <v>0.131553277740302</v>
+        <v>0.1316103662526259</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05213592914788574</v>
+        <v>0.04258181060797527</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>91</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1023854976.009491</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1849795589.648134</v>
+        <v>2230877274.716729</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08923855392378428</v>
+        <v>0.08533249536303102</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03354212940510358</v>
+        <v>0.04680997284485411</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>924897797.8395671</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3779047948.038327</v>
+        <v>5079995863.746264</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1623800024259931</v>
+        <v>0.1094208781789489</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01976233471965078</v>
+        <v>0.01878771735065444</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>119</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1889524012.64083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3840474712.502727</v>
+        <v>3493171677.151657</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08250058630145904</v>
+        <v>0.1103683412906962</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03037544848047527</v>
+        <v>0.02501559736172022</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>99</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1920237397.957983</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2339970852.93588</v>
+        <v>3059856388.958022</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1142407102130262</v>
+        <v>0.1467756909364517</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0283332081811043</v>
+        <v>0.03356810382451941</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>118</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1169985364.617071</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4144886667.536203</v>
+        <v>4298133977.22458</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1332722281705176</v>
+        <v>0.15496165796642</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02631542515824193</v>
+        <v>0.01928737821620441</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>114</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2072443416.025403</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2613145266.711807</v>
+        <v>2713203538.204333</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1436088729606569</v>
+        <v>0.2076399530849007</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04592422771638031</v>
+        <v>0.04680475897868612</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>153</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1306572671.286112</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_374.xlsx
+++ b/output/fit_clients/fit_round_374.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2434710664.327886</v>
+        <v>2518457748.6164</v>
       </c>
       <c r="F2" t="n">
-        <v>0.113329718488579</v>
+        <v>0.08298472845759527</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04227998393862699</v>
+        <v>0.04175825708552776</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2281924991.828619</v>
+        <v>1754726939.734833</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1265258826123875</v>
+        <v>0.1116063471370748</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04699226060470497</v>
+        <v>0.03526442589565716</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3401324266.473</v>
+        <v>3390145268.513393</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1231054938785912</v>
+        <v>0.1657420888816939</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03415734408169417</v>
+        <v>0.03251814646247812</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3724206017.253375</v>
+        <v>3024443304.749307</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0763792592091229</v>
+        <v>0.08200004885250509</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04906245477231711</v>
+        <v>0.03587178980830797</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2469960847.027496</v>
+        <v>2402936949.276145</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1257447878210934</v>
+        <v>0.1054232877040937</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03888825731247524</v>
+        <v>0.0490652044315965</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2581089250.486517</v>
+        <v>1931917723.062106</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06840895543519131</v>
+        <v>0.07934463973114758</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03202167556250114</v>
+        <v>0.04295120063302587</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3970377415.461668</v>
+        <v>2481756941.277381</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1552648988604348</v>
+        <v>0.1643210551698661</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02312536145369408</v>
+        <v>0.02216579016805429</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,16 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1673769367.898109</v>
+        <v>2061774276.101703</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1375232672010371</v>
+        <v>0.1223485809936326</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02798201326600537</v>
+        <v>0.02447854813569689</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3800791789.044938</v>
+        <v>5474229377.521292</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1620672789124665</v>
+        <v>0.1754196948861677</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03776036518291268</v>
+        <v>0.03600576602228075</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3913059489.492636</v>
+        <v>2739175938.116931</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1730918724675883</v>
+        <v>0.183465880561658</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04063847027494139</v>
+        <v>0.04867253806935983</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2891090933.867265</v>
+        <v>2132789163.091913</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1927762953696679</v>
+        <v>0.1274575142516941</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05081401685134758</v>
+        <v>0.03354670463302246</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3456042944.047574</v>
+        <v>3836779369.707925</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08903512468777383</v>
+        <v>0.08614344635385206</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02337827012544385</v>
+        <v>0.02996548564037084</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3555925692.519135</v>
+        <v>3143671684.697562</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1380335437723778</v>
+        <v>0.159612816447791</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04368162400810965</v>
+        <v>0.03824156757008595</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1530943868.615239</v>
+        <v>1127584188.59522</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06806424279866667</v>
+        <v>0.06837328602168891</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03053549530573133</v>
+        <v>0.0346713534751039</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2831050974.832721</v>
+        <v>2691946821.20863</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07988472819926482</v>
+        <v>0.07384649825473759</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03859792652430409</v>
+        <v>0.04893778418184515</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5213048439.034897</v>
+        <v>3478974018.88952</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1442234733977303</v>
+        <v>0.1194860322176254</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0467155450590095</v>
+        <v>0.04319731119747464</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3610815994.03911</v>
+        <v>3063150247.214772</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1245412029720926</v>
+        <v>0.1459035217246657</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03455679661425198</v>
+        <v>0.03146076895517799</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1311411317.596947</v>
+        <v>855577381.7173202</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1658903698693165</v>
+        <v>0.1169412160930245</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02501977543933605</v>
+        <v>0.01853990287923937</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2426498106.902281</v>
+        <v>2712858311.19085</v>
       </c>
       <c r="F20" t="n">
-        <v>0.114470715378508</v>
+        <v>0.1417818075906556</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02698808942741926</v>
+        <v>0.0297810590738076</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2461257782.162966</v>
+        <v>2113916542.864202</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06644765165123609</v>
+        <v>0.09866114286762925</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04545297255725773</v>
+        <v>0.02946557970831619</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3524459313.550788</v>
+        <v>3948178495.898305</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09971242623242652</v>
+        <v>0.1067551485008504</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04500479836179653</v>
+        <v>0.03954879300923806</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1525415228.620709</v>
+        <v>1323979452.955336</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1267091391816615</v>
+        <v>0.1304709974148839</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03993614055068204</v>
+        <v>0.04851268075143137</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3702095533.876915</v>
+        <v>3748056598.16128</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1321812044068625</v>
+        <v>0.1218290168925336</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02875673430666981</v>
+        <v>0.02567183291393093</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1136019382.901535</v>
+        <v>935713766.6805716</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0990652777384249</v>
+        <v>0.08833537432490554</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02410846850847003</v>
+        <v>0.02898698507489163</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>994147909.4813085</v>
+        <v>1205964872.110438</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1177423312393555</v>
+        <v>0.1071139243351059</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03707002031398984</v>
+        <v>0.02827812765092669</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4251655670.975211</v>
+        <v>4694715948.669572</v>
       </c>
       <c r="F27" t="n">
-        <v>0.112372949383715</v>
+        <v>0.1476597776217193</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01925631044223477</v>
+        <v>0.01971748364386077</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2920831162.507083</v>
+        <v>3098702632.912875</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09370341609077694</v>
+        <v>0.1487828532344586</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0499398420308683</v>
+        <v>0.03545217562757465</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3911621470.192163</v>
+        <v>4508241675.13891</v>
       </c>
       <c r="F29" t="n">
-        <v>0.135247197895163</v>
+        <v>0.1092066353161124</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03788900100695956</v>
+        <v>0.02876136020761522</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2205018608.549414</v>
+        <v>1834948891.101013</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1376392201826943</v>
+        <v>0.1312933495368921</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02490687440928212</v>
+        <v>0.0315189890989129</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1290693170.435074</v>
+        <v>1366771936.806753</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1090441686210191</v>
+        <v>0.1079104010706979</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04515322758148889</v>
+        <v>0.04496263344690261</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1355081531.82126</v>
+        <v>1552972075.081694</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07933502531857553</v>
+        <v>0.1106735418689979</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03773754811425507</v>
+        <v>0.02348805016310667</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2246017276.838264</v>
+        <v>2267024969.664095</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1820967975382953</v>
+        <v>0.1714976815568348</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03900786476959808</v>
+        <v>0.04320349566067874</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1249489995.632993</v>
+        <v>946818143.877545</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08945775483196547</v>
+        <v>0.1193410683058224</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01737136968791779</v>
+        <v>0.01873261833512555</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1060956542.103854</v>
+        <v>1221268290.169813</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07724681861617748</v>
+        <v>0.1055564547904522</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04177858586509549</v>
+        <v>0.03238019833673386</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2788214966.813535</v>
+        <v>2697729830.562759</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1804892760671403</v>
+        <v>0.143508258018162</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01898363789501102</v>
+        <v>0.01998750463138881</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1992086809.999831</v>
+        <v>2433110732.535906</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09175719619907254</v>
+        <v>0.1043176086084863</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04234491014538722</v>
+        <v>0.02969488215479119</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1570797533.487926</v>
+        <v>2044598786.094828</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07773478008060146</v>
+        <v>0.08602766335071881</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02763933045437485</v>
+        <v>0.02504633861381304</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2000709574.758195</v>
+        <v>1643591194.27262</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1540391290493791</v>
+        <v>0.1836933706982365</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03247581389579349</v>
+        <v>0.02435367944986684</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1679733162.330173</v>
+        <v>1685136337.798577</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1182342169023275</v>
+        <v>0.1577379514424922</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04936813791421014</v>
+        <v>0.05556737473475121</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2809817384.838821</v>
+        <v>2163157627.356435</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1154128689434243</v>
+        <v>0.109020901947293</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03160361649514478</v>
+        <v>0.0447941291176721</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3964975399.715537</v>
+        <v>4026801169.522108</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1023902939893605</v>
+        <v>0.1023142603715007</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03216139798062847</v>
+        <v>0.03694042691788584</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1936147017.987753</v>
+        <v>2124606331.040381</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1721529860644763</v>
+        <v>0.1929631967061056</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02306512668359916</v>
+        <v>0.01643332421042658</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2088569034.033816</v>
+        <v>2135425402.270083</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09216065501193452</v>
+        <v>0.07322247439470674</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02415241146350361</v>
+        <v>0.03595198850114442</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1698349600.051632</v>
+        <v>2071508576.461634</v>
       </c>
       <c r="F45" t="n">
-        <v>0.167239412897957</v>
+        <v>0.1756081106412779</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05374397196764139</v>
+        <v>0.04011809057100788</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3546505237.742974</v>
+        <v>4175537373.568454</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1718702253346256</v>
+        <v>0.1720024057774867</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04420014070365717</v>
+        <v>0.04206353374904547</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5027763599.32289</v>
+        <v>3973426977.726525</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1712033580807432</v>
+        <v>0.1657677249717116</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05298740756143731</v>
+        <v>0.04594335276824231</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4122403250.295262</v>
+        <v>4665260235.156713</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09786836724985296</v>
+        <v>0.1014305740713279</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02843751462581424</v>
+        <v>0.03048814600427256</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1520495440.36087</v>
+        <v>1436120653.146027</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1795435701658298</v>
+        <v>0.1274583837867544</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0344929739507635</v>
+        <v>0.03004747054963996</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4225106484.811512</v>
+        <v>3619232520.106609</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1072205910658458</v>
+        <v>0.1252205051386186</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03447916944381584</v>
+        <v>0.03969950754086782</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1185049903.853168</v>
+        <v>1066278283.288883</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1604893263305653</v>
+        <v>0.1888398902468612</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05150473447533391</v>
+        <v>0.03351035362501475</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4951178785.090528</v>
+        <v>3401919112.940954</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1139331453221271</v>
+        <v>0.1152756681636588</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05637494077179466</v>
+        <v>0.03862357088239756</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3464361993.485055</v>
+        <v>2841496448.145021</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1796715697091056</v>
+        <v>0.1533146905465382</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02304323828726775</v>
+        <v>0.02678675089041263</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3493538490.728594</v>
+        <v>3063034484.327917</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1663987393723807</v>
+        <v>0.1047818665700085</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04125089689782452</v>
+        <v>0.03324395719633359</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3600685264.631075</v>
+        <v>4220521003.11495</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2062325970987991</v>
+        <v>0.147394313709802</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02171561361639638</v>
+        <v>0.02361845869561933</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1498707423.521463</v>
+        <v>1581559640.186949</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1629427131495227</v>
+        <v>0.106540413592669</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05165305638286919</v>
+        <v>0.05672872114760668</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4498819888.460854</v>
+        <v>4596624287.251784</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1116454597932719</v>
+        <v>0.1350938151710986</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02030264574680347</v>
+        <v>0.02307802283344795</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1643310777.806741</v>
+        <v>1732218151.783529</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1965113284025538</v>
+        <v>0.1579553490061642</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03204375633399344</v>
+        <v>0.02775673546825243</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,16 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4444634343.941862</v>
+        <v>3294367782.629288</v>
       </c>
       <c r="F59" t="n">
-        <v>0.100224083656072</v>
+        <v>0.09433439068515953</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0392314918586641</v>
+        <v>0.0490823730492685</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2110,16 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3219467244.598294</v>
+        <v>3614081602.227356</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1956025277625117</v>
+        <v>0.1630428117238042</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02470666470185982</v>
+        <v>0.03007627484172073</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2533823163.028467</v>
+        <v>3037417137.826056</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1521794770500599</v>
+        <v>0.1630512345664715</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02369597825157198</v>
+        <v>0.02890745432803977</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1347885051.460364</v>
+        <v>1953506637.635971</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1498841336365281</v>
+        <v>0.1290967742154775</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0470284325703651</v>
+        <v>0.0379634520247306</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4178140372.78083</v>
+        <v>3496659592.744229</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1038551442993437</v>
+        <v>0.07277249133468498</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04213154728769173</v>
+        <v>0.04210258242219726</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3712472201.078072</v>
+        <v>3777137507.399568</v>
       </c>
       <c r="F64" t="n">
-        <v>0.142496374256257</v>
+        <v>0.1893179301425371</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02152810883232369</v>
+        <v>0.0298046344993114</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4022747595.007595</v>
+        <v>5573026825.154962</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1280471504184674</v>
+        <v>0.1358065107203714</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02630869175856404</v>
+        <v>0.02166708349726645</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3812674832.445178</v>
+        <v>5455251267.477501</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1596038249748936</v>
+        <v>0.1624366762452383</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03202828573189147</v>
+        <v>0.04307603997373467</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3284243639.829397</v>
+        <v>2349543353.542227</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08654444927440594</v>
+        <v>0.09790529595350891</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04902074591863318</v>
+        <v>0.0344229628889138</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5605756439.357405</v>
+        <v>3934223954.238839</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1550568198045991</v>
+        <v>0.1478020836061898</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04139270323755811</v>
+        <v>0.05028372044277206</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2452355765.004731</v>
+        <v>2261609313.658144</v>
       </c>
       <c r="F69" t="n">
-        <v>0.152335193385754</v>
+        <v>0.173276298527884</v>
       </c>
       <c r="G69" t="n">
-        <v>0.053187344065286</v>
+        <v>0.05343116245349513</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2390,16 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2785502238.002687</v>
+        <v>2527403749.938683</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08100431675575175</v>
+        <v>0.06822222126926958</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03546936497404207</v>
+        <v>0.03898362890805266</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3675334220.805836</v>
+        <v>3471030192.61028</v>
       </c>
       <c r="F71" t="n">
-        <v>0.144527418896509</v>
+        <v>0.1665020602669956</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02208273673578019</v>
+        <v>0.0291602642399928</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1586449331.03319</v>
+        <v>1495543766.444926</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07815640228373798</v>
+        <v>0.07753129329491784</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04408215617781558</v>
+        <v>0.04726453181319119</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3471987558.928306</v>
+        <v>2902255393.682856</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1070915527972938</v>
+        <v>0.0859128707981802</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03820365418250699</v>
+        <v>0.04519418533272034</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3019851124.330978</v>
+        <v>3687988117.542616</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1554480614925174</v>
+        <v>0.1238914653114098</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02515656940925285</v>
+        <v>0.02295797821075709</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,16 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1791981121.627398</v>
+        <v>1575010506.877525</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1322946073627906</v>
+        <v>0.1040017369267521</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02834539769609199</v>
+        <v>0.03046826013117905</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5210993174.307585</v>
+        <v>5114053706.106719</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1246812433466498</v>
+        <v>0.09428383103747562</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02564013091610329</v>
+        <v>0.03040433846481354</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1989903727.096187</v>
+        <v>1504468935.985919</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1700282398805119</v>
+        <v>0.1340368137778678</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02640352802230899</v>
+        <v>0.02992544679192596</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2953181861.399701</v>
+        <v>4559880224.185031</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09103449575377218</v>
+        <v>0.1112121662507281</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04490907858716289</v>
+        <v>0.04071584476181724</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1782649716.331257</v>
+        <v>1325323271.241271</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1564953635555481</v>
+        <v>0.132826958060858</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03946742720991101</v>
+        <v>0.03500363881272497</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,13 +2670,13 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3448782017.041027</v>
+        <v>3566129659.927662</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06816994643085107</v>
+        <v>0.08894645521589768</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03688589799185706</v>
+        <v>0.03520719799092002</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3641827204.665776</v>
+        <v>3312334487.839935</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1135571457919948</v>
+        <v>0.08944359788463914</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02081368598259993</v>
+        <v>0.03107740002681696</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4390096751.935513</v>
+        <v>4457246403.248461</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1818777061445933</v>
+        <v>0.1495310045188647</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02873023657932323</v>
+        <v>0.0209491628525982</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1823074176.915024</v>
+        <v>2435961193.468503</v>
       </c>
       <c r="F83" t="n">
-        <v>0.146207386545622</v>
+        <v>0.1442008312801029</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03988726564085303</v>
+        <v>0.02853386193518408</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1759731328.870145</v>
+        <v>2025985095.619884</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1035771920761615</v>
+        <v>0.09291626306849733</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04958868201571037</v>
+        <v>0.04806650744634424</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2722808028.279431</v>
+        <v>3280076073.437203</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1852449711762113</v>
+        <v>0.1266642128441931</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03792218766395417</v>
+        <v>0.03465206641290378</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2178315011.100956</v>
+        <v>1918797975.401886</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1689502132476046</v>
+        <v>0.140133797734262</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02368650715117005</v>
+        <v>0.02387577658618604</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>946913670.4597715</v>
+        <v>1174303325.36526</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1564503428901482</v>
+        <v>0.1511322925342267</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03671836933347625</v>
+        <v>0.02756831793333093</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3227811212.967988</v>
+        <v>3542380453.428608</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1474295199654282</v>
+        <v>0.1131334826192593</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03902867265020612</v>
+        <v>0.02695979670824437</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3104826990.557746</v>
+        <v>3290674078.718833</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1206847935520479</v>
+        <v>0.1370292010862796</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03414056855915271</v>
+        <v>0.02826662814470075</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1516691857.143942</v>
+        <v>1427421264.098917</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1227570894661762</v>
+        <v>0.08951359828119981</v>
       </c>
       <c r="G90" t="n">
-        <v>0.037846507170731</v>
+        <v>0.03521253570466884</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1693034753.337321</v>
+        <v>1630105102.743253</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1303469358147632</v>
+        <v>0.1625234473244684</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04031665616738642</v>
+        <v>0.05475857496668215</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2844011318.909511</v>
+        <v>2298142644.548591</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1011413530287125</v>
+        <v>0.1080660229887248</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04713771198848243</v>
+        <v>0.04492534232564154</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4587705015.940902</v>
+        <v>3703664165.160387</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1219435556680647</v>
+        <v>0.1097369917617963</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03335271687929827</v>
+        <v>0.03735646326868339</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2248267007.364532</v>
+        <v>1921931719.221808</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1443304179077189</v>
+        <v>0.1405437008610851</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02652603981334224</v>
+        <v>0.03615780468275838</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2009595175.844992</v>
+        <v>2057227382.212234</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1316103662526259</v>
+        <v>0.1215013754470395</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04258181060797527</v>
+        <v>0.04101027226719978</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2230877274.716729</v>
+        <v>2361906131.414307</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08533249536303102</v>
+        <v>0.09291949065227126</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04680997284485411</v>
+        <v>0.03031761357658775</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5079995863.746264</v>
+        <v>4916584937.781202</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1094208781789489</v>
+        <v>0.1516913691082846</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01878771735065444</v>
+        <v>0.02543029194403471</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3493171677.151657</v>
+        <v>3467503000.579959</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1103683412906962</v>
+        <v>0.09116072338915299</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02501559736172022</v>
+        <v>0.02362631142135797</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3059856388.958022</v>
+        <v>2127472251.296022</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1467756909364517</v>
+        <v>0.1057393632829872</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03356810382451941</v>
+        <v>0.02702809634808736</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,16 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4298133977.22458</v>
+        <v>4576415671.32236</v>
       </c>
       <c r="F100" t="n">
-        <v>0.15496165796642</v>
+        <v>0.1247334461562413</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01928737821620441</v>
+        <v>0.02780917886382475</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2713203538.204333</v>
+        <v>3370983125.162325</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2076399530849007</v>
+        <v>0.1760006641622132</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04680475897868612</v>
+        <v>0.04684596440869788</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_374.xlsx
+++ b/output/fit_clients/fit_round_374.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2518457748.6164</v>
+        <v>1665724294.98707</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08298472845759527</v>
+        <v>0.1011031275518092</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04175825708552776</v>
+        <v>0.03252816395244755</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1754726939.734833</v>
+        <v>1758764360.817023</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1116063471370748</v>
+        <v>0.1338447194234298</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03526442589565716</v>
+        <v>0.03815406294907052</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3390145268.513393</v>
+        <v>3218011542.495598</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1657420888816939</v>
+        <v>0.1658743304035042</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03251814646247812</v>
+        <v>0.02537550796900427</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>192</v>
+      </c>
+      <c r="J4" t="n">
+        <v>372</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3024443304.749307</v>
+        <v>2797002644.840842</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08200004885250509</v>
+        <v>0.09791896424055625</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03587178980830797</v>
+        <v>0.03761572261246927</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>150</v>
+      </c>
+      <c r="J5" t="n">
+        <v>372</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2402936949.276145</v>
+        <v>2828000610.655678</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1054232877040937</v>
+        <v>0.1472245937942847</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0490652044315965</v>
+        <v>0.03736440409575222</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1931917723.062106</v>
+        <v>2986599666.916461</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07934463973114758</v>
+        <v>0.06760680902547363</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04295120063302587</v>
+        <v>0.04377127004235674</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2481756941.277381</v>
+        <v>2694990314.238257</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1643210551698661</v>
+        <v>0.2036704372582973</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02216579016805429</v>
+        <v>0.02284602352239699</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>99</v>
+      </c>
+      <c r="J8" t="n">
+        <v>371</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +746,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2061774276.101703</v>
+        <v>1995224919.347626</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1223485809936326</v>
+        <v>0.1974824901712447</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02447854813569689</v>
+        <v>0.02779377301364665</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5474229377.521292</v>
+        <v>4793561419.275425</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1754196948861677</v>
+        <v>0.1591371141185751</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03600576602228075</v>
+        <v>0.04383730107110161</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>309</v>
+      </c>
+      <c r="J10" t="n">
+        <v>373</v>
+      </c>
+      <c r="K10" t="n">
+        <v>54.31465849068955</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2739175938.116931</v>
+        <v>2926311711.62236</v>
       </c>
       <c r="F11" t="n">
-        <v>0.183465880561658</v>
+        <v>0.1617234719389924</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04867253806935983</v>
+        <v>0.03295328347973582</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>156</v>
+      </c>
+      <c r="J11" t="n">
+        <v>373</v>
+      </c>
+      <c r="K11" t="n">
+        <v>43.43830379992443</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2132789163.091913</v>
+        <v>2382948324.119524</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1274575142516941</v>
+        <v>0.1278261942858008</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03354670463302246</v>
+        <v>0.04272663026748152</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3836779369.707925</v>
+        <v>3871822492.282201</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08614344635385206</v>
+        <v>0.09835566102517214</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02996548564037084</v>
+        <v>0.01956648728628049</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>194</v>
+      </c>
+      <c r="J13" t="n">
+        <v>374</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +919,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3143671684.697562</v>
+        <v>2755785616.636493</v>
       </c>
       <c r="F14" t="n">
-        <v>0.159612816447791</v>
+        <v>0.1562619104385466</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03824156757008595</v>
+        <v>0.04429368869934201</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>78</v>
+      </c>
+      <c r="J14" t="n">
+        <v>373</v>
+      </c>
+      <c r="K14" t="n">
+        <v>46.94620874362418</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1127584188.59522</v>
+        <v>1407280301.727922</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06837328602168891</v>
+        <v>0.1084819885772005</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0346713534751039</v>
+        <v>0.04398594235996359</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2691946821.20863</v>
+        <v>2521391694.732682</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07384649825473759</v>
+        <v>0.07756424878000324</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04893778418184515</v>
+        <v>0.05185829858185743</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3478974018.88952</v>
+        <v>3795955902.151578</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1194860322176254</v>
+        <v>0.1424392790933309</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04319731119747464</v>
+        <v>0.04200455831794502</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>177</v>
+      </c>
+      <c r="J17" t="n">
+        <v>373</v>
+      </c>
+      <c r="K17" t="n">
+        <v>55.62401555875509</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3063150247.214772</v>
+        <v>3466577891.01011</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1459035217246657</v>
+        <v>0.1240248718791237</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03146076895517799</v>
+        <v>0.02497716609805807</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>92</v>
+      </c>
+      <c r="J18" t="n">
+        <v>372</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1104,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>855577381.7173202</v>
+        <v>1285524154.354703</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1169412160930245</v>
+        <v>0.1908237897136903</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01853990287923937</v>
+        <v>0.0207090506415271</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1139,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2712858311.19085</v>
+        <v>2493794159.681555</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1417818075906556</v>
+        <v>0.1167810609602001</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0297810590738076</v>
+        <v>0.02273340818556586</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2113916542.864202</v>
+        <v>1944254865.899885</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09866114286762925</v>
+        <v>0.09377061786870405</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02946557970831619</v>
+        <v>0.03566289034932611</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3948178495.898305</v>
+        <v>2484762502.314323</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1067551485008504</v>
+        <v>0.1362786696741726</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03954879300923806</v>
+        <v>0.05172798038564162</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>105</v>
+      </c>
+      <c r="J22" t="n">
+        <v>370</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1323979452.955336</v>
+        <v>1008395060.358705</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1304709974148839</v>
+        <v>0.1377146144402162</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04851268075143137</v>
+        <v>0.05336010925624717</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3748056598.16128</v>
+        <v>3385522606.354766</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1218290168925336</v>
+        <v>0.1081177333344981</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02567183291393093</v>
+        <v>0.02403754215228123</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>115</v>
+      </c>
+      <c r="J24" t="n">
+        <v>371</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1314,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>935713766.6805716</v>
+        <v>1368523294.420444</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08833537432490554</v>
+        <v>0.08603880988750823</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02898698507489163</v>
+        <v>0.0241183038058031</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1349,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1205964872.110438</v>
+        <v>1426640245.984935</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1071139243351059</v>
+        <v>0.1037008092985464</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02827812765092669</v>
+        <v>0.02567549576798768</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4694715948.669572</v>
+        <v>3498774448.452369</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1476597776217193</v>
+        <v>0.1122230663290147</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01971748364386077</v>
+        <v>0.02686838444849716</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>156</v>
+      </c>
+      <c r="J27" t="n">
+        <v>371</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,16 +1419,25 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3098702632.912875</v>
+        <v>3491280598.068556</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1487828532344586</v>
+        <v>0.1279799971098702</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03545217562757465</v>
+        <v>0.03325841867024103</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>86</v>
+      </c>
+      <c r="J28" t="n">
+        <v>374</v>
+      </c>
+      <c r="K28" t="n">
+        <v>72.99717002275834</v>
       </c>
     </row>
     <row r="29">
@@ -1236,23 +1450,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4508241675.13891</v>
+        <v>3946467965.025625</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1092066353161124</v>
+        <v>0.1250525200911253</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02876136020761522</v>
+        <v>0.03015956068908346</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>325</v>
+      </c>
+      <c r="J29" t="n">
+        <v>374</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1270,17 +1491,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1834948891.101013</v>
+        <v>1698086459.318885</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1312933495368921</v>
+        <v>0.099047684281765</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0315189890989129</v>
+        <v>0.03701040696529748</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1366771936.806753</v>
+        <v>1084856333.387487</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1079104010706979</v>
+        <v>0.08053513907791612</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04496263344690261</v>
+        <v>0.03515811750105367</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1552972075.081694</v>
+        <v>1846350487.941098</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1106735418689979</v>
+        <v>0.07502061962052235</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02348805016310667</v>
+        <v>0.0334700638434289</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2267024969.664095</v>
+        <v>2764664337.375575</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1714976815568348</v>
+        <v>0.1521413399875623</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04320349566067874</v>
+        <v>0.05936623436092176</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>946818143.877545</v>
+        <v>958808175.3706093</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1193410683058224</v>
+        <v>0.08606974615443265</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01873261833512555</v>
+        <v>0.02579182201008466</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1221268290.169813</v>
+        <v>1108034222.749413</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1055564547904522</v>
+        <v>0.1053929408828771</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03238019833673386</v>
+        <v>0.04258203937429082</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1701,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2697729830.562759</v>
+        <v>3184200463.084845</v>
       </c>
       <c r="F36" t="n">
-        <v>0.143508258018162</v>
+        <v>0.1394272158444725</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01998750463138881</v>
+        <v>0.02158665176132786</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1736,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2433110732.535906</v>
+        <v>2271751931.689802</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1043176086084863</v>
+        <v>0.06865831235067953</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02969488215479119</v>
+        <v>0.03505310439538593</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2044598786.094828</v>
+        <v>2008852357.646581</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08602766335071881</v>
+        <v>0.1009287079953606</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02504633861381304</v>
+        <v>0.02871815320895189</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1643591194.27262</v>
+        <v>1753928552.460972</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1836933706982365</v>
+        <v>0.1696067601353158</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02435367944986684</v>
+        <v>0.02418354703646258</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1685136337.798577</v>
+        <v>1563169831.243736</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1577379514424922</v>
+        <v>0.09948009824196485</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05556737473475121</v>
+        <v>0.04084019887088482</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2163157627.356435</v>
+        <v>2247548656.952474</v>
       </c>
       <c r="F41" t="n">
-        <v>0.109020901947293</v>
+        <v>0.1246400392082917</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0447941291176721</v>
+        <v>0.04179573615995014</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4026801169.522108</v>
+        <v>3729903741.785954</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1023142603715007</v>
+        <v>0.09241715535980799</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03694042691788584</v>
+        <v>0.03513910741656565</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>164</v>
+      </c>
+      <c r="J42" t="n">
+        <v>374</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1946,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2124606331.040381</v>
+        <v>3026125592.616959</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1929631967061056</v>
+        <v>0.1750323264037036</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01643332421042658</v>
+        <v>0.01717946077545771</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2135425402.270083</v>
+        <v>1783126554.276848</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07322247439470674</v>
+        <v>0.07326566714058733</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03595198850114442</v>
+        <v>0.03474634994402025</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2071508576.461634</v>
+        <v>2204021112.453612</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1756081106412779</v>
+        <v>0.1669650121240896</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04011809057100788</v>
+        <v>0.03502078063130487</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2051,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4175537373.568454</v>
+        <v>4545926307.989541</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1720024057774867</v>
+        <v>0.1351593950298218</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04206353374904547</v>
+        <v>0.03798797681471697</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>223</v>
+      </c>
+      <c r="J46" t="n">
+        <v>374</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2080,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3973426977.726525</v>
+        <v>5037385198.776073</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1657677249717116</v>
+        <v>0.1718329825065586</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04594335276824231</v>
+        <v>0.05718017241798189</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>167</v>
+      </c>
+      <c r="J47" t="n">
+        <v>373</v>
+      </c>
+      <c r="K47" t="n">
+        <v>51.62283626025004</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +2123,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4665260235.156713</v>
+        <v>3058494709.082159</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1014305740713279</v>
+        <v>0.07770929666217523</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03048814600427256</v>
+        <v>0.03665437746888046</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>194</v>
+      </c>
+      <c r="J48" t="n">
+        <v>373</v>
+      </c>
+      <c r="K48" t="n">
+        <v>39.64870079461065</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2160,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1436120653.146027</v>
+        <v>1693512296.525825</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1274583837867544</v>
+        <v>0.177135161331394</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03004747054963996</v>
+        <v>0.03766348867382183</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3619232520.106609</v>
+        <v>3924518947.707227</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1252205051386186</v>
+        <v>0.111693781186455</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03969950754086782</v>
+        <v>0.05087548076319182</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>125</v>
+      </c>
+      <c r="J50" t="n">
+        <v>374</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2230,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1066278283.288883</v>
+        <v>1503770274.609375</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1888398902468612</v>
+        <v>0.1551806458478426</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03351035362501475</v>
+        <v>0.03276419390286609</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2259,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3401919112.940954</v>
+        <v>4058955244.36377</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1152756681636588</v>
+        <v>0.1096064217139878</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03862357088239756</v>
+        <v>0.05856381328089694</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>220</v>
+      </c>
+      <c r="J52" t="n">
+        <v>373</v>
+      </c>
+      <c r="K52" t="n">
+        <v>53.00285703621262</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2841496448.145021</v>
+        <v>2490855938.512062</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1533146905465382</v>
+        <v>0.1626597943413537</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02678675089041263</v>
+        <v>0.02885893797697435</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>52</v>
+      </c>
+      <c r="J53" t="n">
+        <v>357</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2337,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3063034484.327917</v>
+        <v>4683622501.389143</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1047818665700085</v>
+        <v>0.1280044229115396</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03324395719633359</v>
+        <v>0.05253926162468285</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>199</v>
+      </c>
+      <c r="J54" t="n">
+        <v>373</v>
+      </c>
+      <c r="K54" t="n">
+        <v>55.39974889179025</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4220521003.11495</v>
+        <v>4918997532.983479</v>
       </c>
       <c r="F55" t="n">
-        <v>0.147394313709802</v>
+        <v>0.2172211281654602</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02361845869561933</v>
+        <v>0.02203357142445853</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>179</v>
+      </c>
+      <c r="J55" t="n">
+        <v>374</v>
+      </c>
+      <c r="K55" t="n">
+        <v>58.35691899890603</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1581559640.186949</v>
+        <v>1277929318.194708</v>
       </c>
       <c r="F56" t="n">
-        <v>0.106540413592669</v>
+        <v>0.1450999209246819</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05672872114760668</v>
+        <v>0.04175101352383555</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4596624287.251784</v>
+        <v>3251172261.008838</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1350938151710986</v>
+        <v>0.1190639013205993</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02307802283344795</v>
+        <v>0.01806928605237067</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>157</v>
+      </c>
+      <c r="J57" t="n">
+        <v>373</v>
+      </c>
+      <c r="K57" t="n">
+        <v>46.98794238611121</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2483,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1732218151.783529</v>
+        <v>1792805820.362053</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1579553490061642</v>
+        <v>0.1318466958418047</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02775673546825243</v>
+        <v>0.03242490534378452</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3294367782.629288</v>
+        <v>3370047788.272233</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09433439068515953</v>
+        <v>0.1077486563223708</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0490823730492685</v>
+        <v>0.03115590964339276</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
       </c>
+      <c r="I59" t="n">
+        <v>182</v>
+      </c>
+      <c r="J59" t="n">
+        <v>372</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3614081602.227356</v>
+        <v>3121348812.470469</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1630428117238042</v>
+        <v>0.1671994855706255</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03007627484172073</v>
+        <v>0.03054263292307184</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>67</v>
+      </c>
+      <c r="J60" t="n">
+        <v>371</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3037417137.826056</v>
+        <v>2375231784.97639</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1630512345664715</v>
+        <v>0.119614055837898</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02890745432803977</v>
+        <v>0.02474406229515964</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>12</v>
+      </c>
+      <c r="J61" t="n">
+        <v>362</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1953506637.635971</v>
+        <v>1548188542.827299</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1290967742154775</v>
+        <v>0.1352284053654945</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0379634520247306</v>
+        <v>0.03339737127969361</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2658,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3496659592.744229</v>
+        <v>5088395877.31636</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07277249133468498</v>
+        <v>0.09075899966259829</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04210258242219726</v>
+        <v>0.03993125712264257</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>184</v>
+      </c>
+      <c r="J63" t="n">
+        <v>373</v>
+      </c>
+      <c r="K63" t="n">
+        <v>54.82649126326841</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3777137507.399568</v>
+        <v>3618251064.148082</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1893179301425371</v>
+        <v>0.1764788402210044</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0298046344993114</v>
+        <v>0.02935099180431693</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>185</v>
+      </c>
+      <c r="J64" t="n">
+        <v>374</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2724,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5573026825.154962</v>
+        <v>4527247074.745222</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1358065107203714</v>
+        <v>0.1187080578313275</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02166708349726645</v>
+        <v>0.02278700786938441</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>282</v>
+      </c>
+      <c r="J65" t="n">
+        <v>374</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5455251267.477501</v>
+        <v>5231023178.481162</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1624366762452383</v>
+        <v>0.1468314705213025</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04307603997373467</v>
+        <v>0.0460034494822329</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>185</v>
+      </c>
+      <c r="J66" t="n">
+        <v>373</v>
+      </c>
+      <c r="K66" t="n">
+        <v>52.06612884855028</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2349543353.542227</v>
+        <v>2490157040.478283</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09790529595350891</v>
+        <v>0.06356978903803061</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0344229628889138</v>
+        <v>0.0435894122283901</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3934223954.238839</v>
+        <v>5945780101.45156</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1478020836061898</v>
+        <v>0.1345736680808979</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05028372044277206</v>
+        <v>0.04770213429884433</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>203</v>
+      </c>
+      <c r="J68" t="n">
+        <v>373</v>
+      </c>
+      <c r="K68" t="n">
+        <v>55.84727704894993</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2874,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2261609313.658144</v>
+        <v>2025154897.396005</v>
       </c>
       <c r="F69" t="n">
-        <v>0.173276298527884</v>
+        <v>0.1720191910527485</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05343116245349513</v>
+        <v>0.03791897610283086</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2909,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2527403749.938683</v>
+        <v>3271523980.876435</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06822222126926958</v>
+        <v>0.07178042276175782</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03898362890805266</v>
+        <v>0.04109910886514436</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>52</v>
+      </c>
+      <c r="J70" t="n">
+        <v>361</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,17 +2944,24 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3471030192.61028</v>
+        <v>4134475364.115565</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1665020602669956</v>
+        <v>0.1278003761331623</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0291602642399928</v>
+        <v>0.03209352804716219</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>268</v>
+      </c>
+      <c r="J71" t="n">
+        <v>374</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1495543766.444926</v>
+        <v>1416994770.249426</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07753129329491784</v>
+        <v>0.1007633356561292</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04726453181319119</v>
+        <v>0.04182110049849737</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2902255393.682856</v>
+        <v>2242642412.369492</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0859128707981802</v>
+        <v>0.06934867201683033</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04519418533272034</v>
+        <v>0.04236814487723073</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>346</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,16 +3049,25 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3687988117.542616</v>
+        <v>2795575148.162984</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1238914653114098</v>
+        <v>0.1418190037358135</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02295797821075709</v>
+        <v>0.03350130538549218</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>107</v>
+      </c>
+      <c r="J74" t="n">
+        <v>373</v>
+      </c>
+      <c r="K74" t="n">
+        <v>42.87867299893431</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1575010506.877525</v>
+        <v>1833898537.776047</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1040017369267521</v>
+        <v>0.1311664831107821</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03046826013117905</v>
+        <v>0.0313862474755721</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5114053706.106719</v>
+        <v>3352228493.02407</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09428383103747562</v>
+        <v>0.09638298563373657</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03040433846481354</v>
+        <v>0.02711068053378025</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>177</v>
+      </c>
+      <c r="J76" t="n">
+        <v>373</v>
+      </c>
+      <c r="K76" t="n">
+        <v>47.59696272822344</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1504468935.985919</v>
+        <v>1796512929.936531</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1340368137778678</v>
+        <v>0.130120630723483</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02992544679192596</v>
+        <v>0.02728035591019661</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4559880224.185031</v>
+        <v>4335536791.932208</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1112121662507281</v>
+        <v>0.08756670581282025</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04071584476181724</v>
+        <v>0.04000473107920407</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>187</v>
+      </c>
+      <c r="J78" t="n">
+        <v>374</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3228,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1325323271.241271</v>
+        <v>1703236139.096761</v>
       </c>
       <c r="F79" t="n">
-        <v>0.132826958060858</v>
+        <v>0.1611712208148766</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03500363881272497</v>
+        <v>0.02696618977979821</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3566129659.927662</v>
+        <v>3828581915.204401</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08894645521589768</v>
+        <v>0.08041555968304738</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03520719799092002</v>
+        <v>0.03717852370702125</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>182</v>
+      </c>
+      <c r="J80" t="n">
+        <v>374</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3312334487.839935</v>
+        <v>4242184576.36218</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08944359788463914</v>
+        <v>0.1354008957142361</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03107740002681696</v>
+        <v>0.03302069285575639</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>173</v>
+      </c>
+      <c r="J81" t="n">
+        <v>374</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,17 +3333,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4457246403.248461</v>
+        <v>4777093738.122868</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1495310045188647</v>
+        <v>0.1480411678123163</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0209491628525982</v>
+        <v>0.02053624149936352</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>260</v>
+      </c>
+      <c r="J82" t="n">
+        <v>374</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3368,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2435961193.468503</v>
+        <v>2477812466.870687</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1442008312801029</v>
+        <v>0.1217364790777149</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02853386193518408</v>
+        <v>0.03656756674534283</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3397,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2025985095.619884</v>
+        <v>1845453890.173478</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09291626306849733</v>
+        <v>0.0842063831613413</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04806650744634424</v>
+        <v>0.0341029314336966</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3432,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3280076073.437203</v>
+        <v>2921755251.505548</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1266642128441931</v>
+        <v>0.1380892186323335</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03465206641290378</v>
+        <v>0.04563351656752249</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>50</v>
+      </c>
+      <c r="J85" t="n">
+        <v>373</v>
+      </c>
+      <c r="K85" t="n">
+        <v>56.74473854427004</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1918797975.401886</v>
+        <v>2356885570.787336</v>
       </c>
       <c r="F86" t="n">
-        <v>0.140133797734262</v>
+        <v>0.1196850432250735</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02387577658618604</v>
+        <v>0.01701350229464341</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1174303325.36526</v>
+        <v>1346989683.015732</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1511322925342267</v>
+        <v>0.1789338287155783</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02756831793333093</v>
+        <v>0.0441418239535061</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3542380453.428608</v>
+        <v>3559828151.375602</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1131334826192593</v>
+        <v>0.142163863323216</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02695979670824437</v>
+        <v>0.0350234706024633</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>47</v>
+      </c>
+      <c r="J88" t="n">
+        <v>374</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3290674078.718833</v>
+        <v>3348742396.059255</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1370292010862796</v>
+        <v>0.1285853761624048</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02826662814470075</v>
+        <v>0.04085190324621766</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1427421264.098917</v>
+        <v>2152838187.563478</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08951359828119981</v>
+        <v>0.1023682341330701</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03521253570466884</v>
+        <v>0.04983595279062017</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1630105102.743253</v>
+        <v>1558905726.394462</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1625234473244684</v>
+        <v>0.1806518404721748</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05475857496668215</v>
+        <v>0.05903248306986594</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2298142644.548591</v>
+        <v>1973616683.320308</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1080660229887248</v>
+        <v>0.103204661920698</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04492534232564154</v>
+        <v>0.03070470850789638</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3720,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3703664165.160387</v>
+        <v>3602730741.223889</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1097369917617963</v>
+        <v>0.1083884168934892</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03735646326868339</v>
+        <v>0.03949321794540153</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>175</v>
+      </c>
+      <c r="J93" t="n">
+        <v>374</v>
+      </c>
+      <c r="K93" t="n">
+        <v>56.98880961718542</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1921931719.221808</v>
+        <v>2245961685.334403</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1405437008610851</v>
+        <v>0.1213883283816672</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03615780468275838</v>
+        <v>0.04006003798232922</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2057227382.212234</v>
+        <v>2599854014.816412</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1215013754470395</v>
+        <v>0.08374248342522765</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04101027226719978</v>
+        <v>0.04915679116133685</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2361906131.414307</v>
+        <v>1997964118.738504</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09291949065227126</v>
+        <v>0.1356725757786561</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03031761357658775</v>
+        <v>0.03083088982482218</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3856,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4916584937.781202</v>
+        <v>3742714254.891283</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1516913691082846</v>
+        <v>0.1188437534682584</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02543029194403471</v>
+        <v>0.02627758907923555</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>193</v>
+      </c>
+      <c r="J97" t="n">
+        <v>374</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3467503000.579959</v>
+        <v>3489617582.450363</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09116072338915299</v>
+        <v>0.08213256144283135</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02362631142135797</v>
+        <v>0.02065519590059883</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>95</v>
+      </c>
+      <c r="J98" t="n">
+        <v>374</v>
+      </c>
+      <c r="K98" t="n">
+        <v>57.77120886225175</v>
       </c>
     </row>
     <row r="99">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2127472251.296022</v>
+        <v>2890359668.320673</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1057393632829872</v>
+        <v>0.1287789022175682</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02702809634808736</v>
+        <v>0.03332432416753305</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>348</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4576415671.32236</v>
+        <v>3669968167.32889</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1247334461562413</v>
+        <v>0.1248886601662544</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02780917886382475</v>
+        <v>0.02234983064247362</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>171</v>
+      </c>
+      <c r="J100" t="n">
+        <v>374</v>
+      </c>
+      <c r="K100" t="n">
+        <v>58.00623228341119</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3370983125.162325</v>
+        <v>3587750142.764656</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1760006641622132</v>
+        <v>0.1927086944473411</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04684596440869788</v>
+        <v>0.05566339051416345</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>33</v>
+      </c>
+      <c r="J101" t="n">
+        <v>374</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
